--- a/trunk/Documentation/6 bit FLASH.xlsx
+++ b/trunk/Documentation/6 bit FLASH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="29715" windowHeight="13605"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DU72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1:BK1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="BT30" sqref="BT30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="24.75" customHeight="1"/>

--- a/trunk/Documentation/6 bit FLASH.xlsx
+++ b/trunk/Documentation/6 bit FLASH.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:DU72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="BT30" sqref="BT30"/>
+      <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="24.75" customHeight="1"/>

--- a/trunk/Documentation/6 bit FLASH.xlsx
+++ b/trunk/Documentation/6 bit FLASH.xlsx
@@ -573,13 +573,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DU72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="AR24" sqref="AR24"/>
+    <sheetView tabSelected="1" topLeftCell="P10" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1:BK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="63" width="6.42578125" style="3"/>
+    <col min="1" max="38" width="6.42578125" style="3"/>
+    <col min="39" max="39" width="6.42578125" style="3" customWidth="1"/>
+    <col min="40" max="63" width="6.42578125" style="3"/>
     <col min="64" max="64" width="6.42578125" style="3" customWidth="1"/>
     <col min="65" max="75" width="6.42578125" style="2"/>
     <col min="76" max="76" width="6.42578125" style="3"/>

--- a/trunk/Documentation/6 bit FLASH.xlsx
+++ b/trunk/Documentation/6 bit FLASH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>C1</t>
   </si>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DU72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="CD65" sqref="CD65"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CC1" sqref="CC1:CH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="24.75" customHeight="1"/>
@@ -588,7 +588,7 @@
     <col min="77" max="16384" width="6.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:86" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,8 +796,23 @@
       <c r="BW1" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="CC1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="2" spans="1:86" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1007,8 +1022,23 @@
         <v>1</v>
       </c>
       <c r="BX2" s="3"/>
+      <c r="CC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" ht="24.75" customHeight="1">
+    <row r="3" spans="1:86" ht="24.75" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1216,8 +1246,23 @@
       <c r="BW3" s="2">
         <v>0</v>
       </c>
+      <c r="CC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" ht="24.75" customHeight="1">
+    <row r="4" spans="1:86" ht="24.75" customHeight="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1425,8 +1470,23 @@
       <c r="BW4" s="2">
         <v>1</v>
       </c>
+      <c r="CC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" ht="24.75" customHeight="1">
+    <row r="5" spans="1:86" ht="24.75" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1634,8 +1694,23 @@
       <c r="BW5" s="2">
         <v>0</v>
       </c>
+      <c r="CC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" ht="24.75" customHeight="1">
+    <row r="6" spans="1:86" ht="24.75" customHeight="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1844,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:76" ht="24.75" customHeight="1">
+    <row r="7" spans="1:86" ht="24.75" customHeight="1">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2053,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:76" ht="24.75" customHeight="1">
+    <row r="8" spans="1:86" ht="24.75" customHeight="1">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2262,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:76" ht="24.75" customHeight="1">
+    <row r="9" spans="1:86" ht="24.75" customHeight="1">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2471,8 +2546,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:76" ht="4.5" customHeight="1"/>
-    <row r="11" spans="1:76" ht="24.75" customHeight="1">
+    <row r="10" spans="1:86" ht="4.5" customHeight="1"/>
+    <row r="11" spans="1:86" ht="24.75" customHeight="1">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2681,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:76" ht="24.75" customHeight="1">
+    <row r="12" spans="1:86" ht="24.75" customHeight="1">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -2890,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:76" ht="24.75" customHeight="1">
+    <row r="13" spans="1:86" ht="24.75" customHeight="1">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -3099,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:76" ht="24.75" customHeight="1">
+    <row r="14" spans="1:86" ht="24.75" customHeight="1">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -3308,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:76" ht="24.75" customHeight="1">
+    <row r="15" spans="1:86" ht="24.75" customHeight="1">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -3517,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:76" ht="24.75" customHeight="1">
+    <row r="16" spans="1:86" ht="24.75" customHeight="1">
       <c r="A16" s="3">
         <v>1</v>
       </c>
